--- a/Catalogo Distribuidores.xlsx
+++ b/Catalogo Distribuidores.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://syngenta.sharepoint.com/sites/CatlogosSellOut/Documentos compartidos/General/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ad2196898358a5cd/Documentos/SellOut ConAgro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="11_F238EAFC62F758B8E00C12CE22A83A9FCE35F512" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E2682C1-7619-4755-8062-A4063AA3093A}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="11_F238EAFC62F758B8E00C12CE22A83A9FCE35F512" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F447CD1A-E78B-4AA3-B58E-CF6023FC287A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4222,7 +4222,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -4234,6 +4234,12 @@
       <color rgb="FFFFC58F"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -4256,12 +4262,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4580,7 +4587,7 @@
   <dimension ref="A1:E801"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B215" sqref="B215"/>
+      <selection activeCell="B579" sqref="B579"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5153,7 +5160,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>78</v>
       </c>
@@ -7329,7 +7336,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>312</v>
       </c>
@@ -7346,7 +7353,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>312</v>
       </c>
@@ -7363,7 +7370,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>312</v>
       </c>
@@ -7380,7 +7387,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>312</v>
       </c>
@@ -8230,7 +8237,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>407</v>
       </c>
@@ -14418,11 +14425,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="579" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>1032</v>
       </c>
-      <c r="B579" t="s">
+      <c r="B579" s="3" t="s">
         <v>1033</v>
       </c>
       <c r="C579" s="1" t="s">
@@ -18211,9 +18218,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:E801" xr:uid="{51088D9D-62B7-41E4-8B76-6FFB3F0B2EDC}">
-    <filterColumn colId="0">
+    <filterColumn colId="1">
       <filters>
-        <filter val="10180975"/>
+        <filter val="AGRICOLA NIETO"/>
+        <filter val="AGROSERVICIOS NIETO"/>
+        <filter val="MARTIN GARCIA AYALA"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -18222,6 +18231,28 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="043cc7b2-80f4-4f5c-8b19-3681e54e1ba2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <Completo xmlns="043cc7b2-80f4-4f5c-8b19-3681e54e1ba2" xsi:nil="true"/>
+    <Notas xmlns="043cc7b2-80f4-4f5c-8b19-3681e54e1ba2" xsi:nil="true"/>
+    <TaxCatchAll xmlns="0e4cfebf-c1cd-4cb6-a3c7-8113325cd164" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010018D9DB4E7D59494481FC469365078EDC" ma:contentTypeVersion="16" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="acbafde73f9b496d5e4b44dfadfbc68f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="043cc7b2-80f4-4f5c-8b19-3681e54e1ba2" xmlns:ns3="0e4cfebf-c1cd-4cb6-a3c7-8113325cd164" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6534ac31db0e5cfcc65daaaf9d9eb6b8" ns2:_="" ns3:_="">
     <xsd:import namespace="043cc7b2-80f4-4f5c-8b19-3681e54e1ba2"/>
@@ -18462,29 +18493,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47DF324D-5AB6-463D-9483-C861984A3052}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="043cc7b2-80f4-4f5c-8b19-3681e54e1ba2"/>
+    <ds:schemaRef ds:uri="0e4cfebf-c1cd-4cb6-a3c7-8113325cd164"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="043cc7b2-80f4-4f5c-8b19-3681e54e1ba2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <Completo xmlns="043cc7b2-80f4-4f5c-8b19-3681e54e1ba2" xsi:nil="true"/>
-    <Notas xmlns="043cc7b2-80f4-4f5c-8b19-3681e54e1ba2" xsi:nil="true"/>
-    <TaxCatchAll xmlns="0e4cfebf-c1cd-4cb6-a3c7-8113325cd164" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C5BD9A8-8D4C-4336-BBCD-6823DF93D678}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83052261-EE6F-4C8A-B493-67EC6678B9DA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18501,23 +18529,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C5BD9A8-8D4C-4336-BBCD-6823DF93D678}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47DF324D-5AB6-463D-9483-C861984A3052}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="043cc7b2-80f4-4f5c-8b19-3681e54e1ba2"/>
-    <ds:schemaRef ds:uri="0e4cfebf-c1cd-4cb6-a3c7-8113325cd164"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Catalogo Distribuidores.xlsx
+++ b/Catalogo Distribuidores.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ad2196898358a5cd/Documentos/SellOut ConAgro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="11_F238EAFC62F758B8E00C12CE22A83A9FCE35F512" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F447CD1A-E78B-4AA3-B58E-CF6023FC287A}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="11_F238EAFC62F758B8E00C12CE22A83A9FCE35F512" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71FBA140-2DB2-4016-A928-CE8C2467C03B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4587,7 +4587,7 @@
   <dimension ref="A1:E801"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B579" sqref="B579"/>
+      <selection activeCell="A83" sqref="A83:B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5160,7 +5160,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>78</v>
       </c>
@@ -5993,7 +5993,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>174</v>
       </c>
@@ -7336,7 +7336,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>312</v>
       </c>
@@ -7353,7 +7353,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>312</v>
       </c>
@@ -7370,7 +7370,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>312</v>
       </c>
@@ -7387,7 +7387,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>312</v>
       </c>
@@ -14425,7 +14425,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="579" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>1032</v>
       </c>
@@ -18220,9 +18220,7 @@
   <autoFilter ref="A1:E801" xr:uid="{51088D9D-62B7-41E4-8B76-6FFB3F0B2EDC}">
     <filterColumn colId="1">
       <filters>
-        <filter val="AGRICOLA NIETO"/>
-        <filter val="AGROSERVICIOS NIETO"/>
-        <filter val="MARTIN GARCIA AYALA"/>
+        <filter val="AGROIMPULSORA CUAMANCO"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -18231,28 +18229,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="043cc7b2-80f4-4f5c-8b19-3681e54e1ba2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <Completo xmlns="043cc7b2-80f4-4f5c-8b19-3681e54e1ba2" xsi:nil="true"/>
-    <Notas xmlns="043cc7b2-80f4-4f5c-8b19-3681e54e1ba2" xsi:nil="true"/>
-    <TaxCatchAll xmlns="0e4cfebf-c1cd-4cb6-a3c7-8113325cd164" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010018D9DB4E7D59494481FC469365078EDC" ma:contentTypeVersion="16" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="acbafde73f9b496d5e4b44dfadfbc68f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="043cc7b2-80f4-4f5c-8b19-3681e54e1ba2" xmlns:ns3="0e4cfebf-c1cd-4cb6-a3c7-8113325cd164" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6534ac31db0e5cfcc65daaaf9d9eb6b8" ns2:_="" ns3:_="">
     <xsd:import namespace="043cc7b2-80f4-4f5c-8b19-3681e54e1ba2"/>
@@ -18493,26 +18469,29 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47DF324D-5AB6-463D-9483-C861984A3052}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="043cc7b2-80f4-4f5c-8b19-3681e54e1ba2"/>
-    <ds:schemaRef ds:uri="0e4cfebf-c1cd-4cb6-a3c7-8113325cd164"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C5BD9A8-8D4C-4336-BBCD-6823DF93D678}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="043cc7b2-80f4-4f5c-8b19-3681e54e1ba2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <Completo xmlns="043cc7b2-80f4-4f5c-8b19-3681e54e1ba2" xsi:nil="true"/>
+    <Notas xmlns="043cc7b2-80f4-4f5c-8b19-3681e54e1ba2" xsi:nil="true"/>
+    <TaxCatchAll xmlns="0e4cfebf-c1cd-4cb6-a3c7-8113325cd164" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83052261-EE6F-4C8A-B493-67EC6678B9DA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18529,4 +18508,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C5BD9A8-8D4C-4336-BBCD-6823DF93D678}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47DF324D-5AB6-463D-9483-C861984A3052}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="043cc7b2-80f4-4f5c-8b19-3681e54e1ba2"/>
+    <ds:schemaRef ds:uri="0e4cfebf-c1cd-4cb6-a3c7-8113325cd164"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Catalogo Distribuidores.xlsx
+++ b/Catalogo Distribuidores.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ad2196898358a5cd/Documentos/SellOut ConAgro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="11_F238EAFC62F758B8E00C12CE22A83A9FCE35F512" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71FBA140-2DB2-4016-A928-CE8C2467C03B}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="11_F238EAFC62F758B8E00C12CE22A83A9FCE35F512" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56AF2CA0-E20F-40BF-93F5-1671D986693A}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-2745" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4587,19 +4587,19 @@
   <dimension ref="A1:E801"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A83" sqref="A83:B83"/>
+      <selection activeCell="A744" sqref="A744:B744"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="76.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="76.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4616,7 +4616,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -4633,7 +4633,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -4650,7 +4650,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -4667,7 +4667,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -4684,7 +4684,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -4701,7 +4701,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -4718,7 +4718,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -4735,7 +4735,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -4752,7 +4752,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -4769,7 +4769,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -4786,7 +4786,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -4803,7 +4803,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -4820,7 +4820,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -4837,7 +4837,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -4854,7 +4854,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -4871,7 +4871,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -4888,7 +4888,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -4905,7 +4905,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>47</v>
       </c>
@@ -4922,7 +4922,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -4939,7 +4939,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -4956,7 +4956,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -4973,7 +4973,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -4990,7 +4990,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -5007,7 +5007,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>56</v>
       </c>
@@ -5024,7 +5024,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>60</v>
       </c>
@@ -5041,7 +5041,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>62</v>
       </c>
@@ -5058,7 +5058,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>64</v>
       </c>
@@ -5075,7 +5075,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>68</v>
       </c>
@@ -5092,7 +5092,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>70</v>
       </c>
@@ -5109,7 +5109,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>72</v>
       </c>
@@ -5126,7 +5126,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>74</v>
       </c>
@@ -5143,7 +5143,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>76</v>
       </c>
@@ -5160,7 +5160,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>78</v>
       </c>
@@ -5177,7 +5177,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>80</v>
       </c>
@@ -5194,7 +5194,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>82</v>
       </c>
@@ -5211,7 +5211,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>86</v>
       </c>
@@ -5228,7 +5228,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>88</v>
       </c>
@@ -5245,7 +5245,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>90</v>
       </c>
@@ -5262,7 +5262,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>92</v>
       </c>
@@ -5279,7 +5279,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>94</v>
       </c>
@@ -5296,7 +5296,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>96</v>
       </c>
@@ -5313,7 +5313,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>98</v>
       </c>
@@ -5330,7 +5330,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>100</v>
       </c>
@@ -5347,7 +5347,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>100</v>
       </c>
@@ -5364,7 +5364,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>100</v>
       </c>
@@ -5381,7 +5381,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>102</v>
       </c>
@@ -5398,7 +5398,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>104</v>
       </c>
@@ -5415,7 +5415,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>106</v>
       </c>
@@ -5432,7 +5432,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>106</v>
       </c>
@@ -5449,7 +5449,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>108</v>
       </c>
@@ -5466,7 +5466,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>112</v>
       </c>
@@ -5483,7 +5483,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>114</v>
       </c>
@@ -5500,7 +5500,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>116</v>
       </c>
@@ -5517,7 +5517,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>116</v>
       </c>
@@ -5534,7 +5534,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>118</v>
       </c>
@@ -5551,7 +5551,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>120</v>
       </c>
@@ -5568,7 +5568,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>120</v>
       </c>
@@ -5585,7 +5585,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>124</v>
       </c>
@@ -5602,7 +5602,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>124</v>
       </c>
@@ -5619,7 +5619,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>126</v>
       </c>
@@ -5636,7 +5636,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>130</v>
       </c>
@@ -5653,7 +5653,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>130</v>
       </c>
@@ -5670,7 +5670,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>134</v>
       </c>
@@ -5687,7 +5687,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>136</v>
       </c>
@@ -5704,7 +5704,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>138</v>
       </c>
@@ -5721,7 +5721,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>140</v>
       </c>
@@ -5738,7 +5738,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>142</v>
       </c>
@@ -5755,7 +5755,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>144</v>
       </c>
@@ -5772,7 +5772,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>146</v>
       </c>
@@ -5789,7 +5789,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>150</v>
       </c>
@@ -5806,7 +5806,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>154</v>
       </c>
@@ -5823,7 +5823,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>154</v>
       </c>
@@ -5840,7 +5840,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>156</v>
       </c>
@@ -5857,7 +5857,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>158</v>
       </c>
@@ -5874,7 +5874,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>160</v>
       </c>
@@ -5891,7 +5891,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>162</v>
       </c>
@@ -5908,7 +5908,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>164</v>
       </c>
@@ -5925,7 +5925,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>166</v>
       </c>
@@ -5942,7 +5942,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>168</v>
       </c>
@@ -5959,7 +5959,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>170</v>
       </c>
@@ -5976,7 +5976,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>172</v>
       </c>
@@ -5993,7 +5993,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>174</v>
       </c>
@@ -6010,7 +6010,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>176</v>
       </c>
@@ -6027,7 +6027,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>178</v>
       </c>
@@ -6044,7 +6044,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>180</v>
       </c>
@@ -6061,7 +6061,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>182</v>
       </c>
@@ -6078,7 +6078,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>184</v>
       </c>
@@ -6095,7 +6095,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>186</v>
       </c>
@@ -6112,7 +6112,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>186</v>
       </c>
@@ -6129,7 +6129,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>188</v>
       </c>
@@ -6146,7 +6146,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>190</v>
       </c>
@@ -6163,7 +6163,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>190</v>
       </c>
@@ -6180,7 +6180,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>190</v>
       </c>
@@ -6197,7 +6197,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>192</v>
       </c>
@@ -6214,7 +6214,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>192</v>
       </c>
@@ -6231,7 +6231,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>194</v>
       </c>
@@ -6248,7 +6248,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>196</v>
       </c>
@@ -6265,7 +6265,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>196</v>
       </c>
@@ -6282,7 +6282,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>196</v>
       </c>
@@ -6299,7 +6299,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>200</v>
       </c>
@@ -6316,7 +6316,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>200</v>
       </c>
@@ -6333,7 +6333,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>202</v>
       </c>
@@ -6350,7 +6350,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>204</v>
       </c>
@@ -6367,7 +6367,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>206</v>
       </c>
@@ -6384,7 +6384,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>208</v>
       </c>
@@ -6401,7 +6401,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>210</v>
       </c>
@@ -6418,7 +6418,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>212</v>
       </c>
@@ -6435,7 +6435,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>214</v>
       </c>
@@ -6452,7 +6452,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>216</v>
       </c>
@@ -6469,7 +6469,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>218</v>
       </c>
@@ -6486,7 +6486,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>220</v>
       </c>
@@ -6503,7 +6503,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>222</v>
       </c>
@@ -6520,7 +6520,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>224</v>
       </c>
@@ -6537,7 +6537,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>226</v>
       </c>
@@ -6554,7 +6554,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>228</v>
       </c>
@@ -6571,7 +6571,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>230</v>
       </c>
@@ -6588,7 +6588,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>232</v>
       </c>
@@ -6605,7 +6605,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>234</v>
       </c>
@@ -6622,7 +6622,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>236</v>
       </c>
@@ -6639,7 +6639,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>238</v>
       </c>
@@ -6656,7 +6656,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>240</v>
       </c>
@@ -6673,7 +6673,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>240</v>
       </c>
@@ -6690,7 +6690,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>242</v>
       </c>
@@ -6707,7 +6707,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>244</v>
       </c>
@@ -6724,7 +6724,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>246</v>
       </c>
@@ -6741,7 +6741,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>248</v>
       </c>
@@ -6758,7 +6758,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>252</v>
       </c>
@@ -6775,7 +6775,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>254</v>
       </c>
@@ -6792,7 +6792,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>256</v>
       </c>
@@ -6809,7 +6809,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>258</v>
       </c>
@@ -6826,7 +6826,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>260</v>
       </c>
@@ -6843,7 +6843,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>262</v>
       </c>
@@ -6860,7 +6860,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>264</v>
       </c>
@@ -6877,7 +6877,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>266</v>
       </c>
@@ -6894,7 +6894,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>268</v>
       </c>
@@ -6911,7 +6911,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>268</v>
       </c>
@@ -6928,7 +6928,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>270</v>
       </c>
@@ -6945,7 +6945,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>270</v>
       </c>
@@ -6962,7 +6962,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>272</v>
       </c>
@@ -6979,7 +6979,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>274</v>
       </c>
@@ -6996,7 +6996,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>274</v>
       </c>
@@ -7013,7 +7013,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>276</v>
       </c>
@@ -7030,7 +7030,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>278</v>
       </c>
@@ -7047,7 +7047,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>280</v>
       </c>
@@ -7064,7 +7064,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>280</v>
       </c>
@@ -7081,7 +7081,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>280</v>
       </c>
@@ -7098,7 +7098,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>282</v>
       </c>
@@ -7115,7 +7115,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>284</v>
       </c>
@@ -7132,7 +7132,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>286</v>
       </c>
@@ -7149,7 +7149,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>290</v>
       </c>
@@ -7166,7 +7166,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>292</v>
       </c>
@@ -7183,7 +7183,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>294</v>
       </c>
@@ -7200,7 +7200,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>298</v>
       </c>
@@ -7217,7 +7217,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>300</v>
       </c>
@@ -7234,7 +7234,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>302</v>
       </c>
@@ -7251,7 +7251,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>304</v>
       </c>
@@ -7268,7 +7268,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>306</v>
       </c>
@@ -7285,7 +7285,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>306</v>
       </c>
@@ -7302,7 +7302,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>308</v>
       </c>
@@ -7319,7 +7319,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>310</v>
       </c>
@@ -7336,7 +7336,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>312</v>
       </c>
@@ -7353,7 +7353,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>312</v>
       </c>
@@ -7370,7 +7370,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>312</v>
       </c>
@@ -7387,7 +7387,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>312</v>
       </c>
@@ -7404,7 +7404,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>314</v>
       </c>
@@ -7421,7 +7421,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>314</v>
       </c>
@@ -7438,7 +7438,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>316</v>
       </c>
@@ -7455,7 +7455,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>318</v>
       </c>
@@ -7472,7 +7472,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>318</v>
       </c>
@@ -7489,7 +7489,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>320</v>
       </c>
@@ -7506,7 +7506,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>322</v>
       </c>
@@ -7523,7 +7523,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>324</v>
       </c>
@@ -7540,7 +7540,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>326</v>
       </c>
@@ -7557,7 +7557,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>328</v>
       </c>
@@ -7574,7 +7574,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>330</v>
       </c>
@@ -7591,7 +7591,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>332</v>
       </c>
@@ -7608,7 +7608,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>334</v>
       </c>
@@ -7625,7 +7625,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>336</v>
       </c>
@@ -7642,7 +7642,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>338</v>
       </c>
@@ -7659,7 +7659,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>340</v>
       </c>
@@ -7676,7 +7676,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>342</v>
       </c>
@@ -7693,7 +7693,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>344</v>
       </c>
@@ -7710,7 +7710,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>346</v>
       </c>
@@ -7727,7 +7727,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>348</v>
       </c>
@@ -7744,7 +7744,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>350</v>
       </c>
@@ -7761,7 +7761,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>352</v>
       </c>
@@ -7778,7 +7778,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>354</v>
       </c>
@@ -7795,7 +7795,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>10288424</v>
       </c>
@@ -7812,7 +7812,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>357</v>
       </c>
@@ -7829,7 +7829,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>359</v>
       </c>
@@ -7846,7 +7846,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>361</v>
       </c>
@@ -7863,7 +7863,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>363</v>
       </c>
@@ -7880,7 +7880,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>365</v>
       </c>
@@ -7897,7 +7897,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>367</v>
       </c>
@@ -7914,7 +7914,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>369</v>
       </c>
@@ -7931,7 +7931,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>371</v>
       </c>
@@ -7948,7 +7948,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>373</v>
       </c>
@@ -7965,7 +7965,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>375</v>
       </c>
@@ -7982,7 +7982,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>377</v>
       </c>
@@ -7999,7 +7999,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>379</v>
       </c>
@@ -8016,7 +8016,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>381</v>
       </c>
@@ -8033,7 +8033,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="203" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>383</v>
       </c>
@@ -8050,7 +8050,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="204" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>385</v>
       </c>
@@ -8067,7 +8067,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="205" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>387</v>
       </c>
@@ -8084,7 +8084,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="206" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>389</v>
       </c>
@@ -8101,7 +8101,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>391</v>
       </c>
@@ -8118,7 +8118,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="208" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>393</v>
       </c>
@@ -8135,7 +8135,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>395</v>
       </c>
@@ -8152,7 +8152,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>397</v>
       </c>
@@ -8169,7 +8169,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>399</v>
       </c>
@@ -8186,7 +8186,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>401</v>
       </c>
@@ -8203,7 +8203,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>403</v>
       </c>
@@ -8220,7 +8220,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>405</v>
       </c>
@@ -8237,7 +8237,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="215" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>407</v>
       </c>
@@ -8254,7 +8254,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>409</v>
       </c>
@@ -8271,7 +8271,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>411</v>
       </c>
@@ -8288,7 +8288,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>413</v>
       </c>
@@ -8305,7 +8305,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>415</v>
       </c>
@@ -8322,7 +8322,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>417</v>
       </c>
@@ -8339,7 +8339,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="221" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>419</v>
       </c>
@@ -8356,7 +8356,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>421</v>
       </c>
@@ -8373,7 +8373,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>423</v>
       </c>
@@ -8390,7 +8390,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="224" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>425</v>
       </c>
@@ -8407,7 +8407,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="225" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>427</v>
       </c>
@@ -8424,7 +8424,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="226" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>427</v>
       </c>
@@ -8441,7 +8441,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>429</v>
       </c>
@@ -8458,7 +8458,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>431</v>
       </c>
@@ -8475,7 +8475,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="229" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>433</v>
       </c>
@@ -8492,7 +8492,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="230" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>435</v>
       </c>
@@ -8509,7 +8509,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="231" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>437</v>
       </c>
@@ -8526,7 +8526,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>439</v>
       </c>
@@ -8543,7 +8543,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>441</v>
       </c>
@@ -8560,7 +8560,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="234" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>443</v>
       </c>
@@ -8577,7 +8577,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="235" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>445</v>
       </c>
@@ -8594,7 +8594,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="236" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>447</v>
       </c>
@@ -8611,7 +8611,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>449</v>
       </c>
@@ -8628,7 +8628,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="238" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>449</v>
       </c>
@@ -8645,7 +8645,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="239" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>451</v>
       </c>
@@ -8662,7 +8662,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="240" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>453</v>
       </c>
@@ -8679,7 +8679,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="241" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>455</v>
       </c>
@@ -8696,7 +8696,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>457</v>
       </c>
@@ -8713,7 +8713,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="243" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>459</v>
       </c>
@@ -8730,7 +8730,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="244" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>461</v>
       </c>
@@ -8747,7 +8747,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="245" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>463</v>
       </c>
@@ -8764,7 +8764,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="246" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>463</v>
       </c>
@@ -8781,7 +8781,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="247" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>465</v>
       </c>
@@ -8798,7 +8798,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="248" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>467</v>
       </c>
@@ -8815,7 +8815,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="249" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>469</v>
       </c>
@@ -8832,7 +8832,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="250" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>471</v>
       </c>
@@ -8849,7 +8849,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="251" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>471</v>
       </c>
@@ -8866,7 +8866,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>473</v>
       </c>
@@ -8883,7 +8883,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="253" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>475</v>
       </c>
@@ -8900,7 +8900,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="254" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>477</v>
       </c>
@@ -8917,7 +8917,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="255" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>479</v>
       </c>
@@ -8934,7 +8934,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="256" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>481</v>
       </c>
@@ -8951,7 +8951,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="257" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>483</v>
       </c>
@@ -8968,7 +8968,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>483</v>
       </c>
@@ -8985,7 +8985,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="259" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>485</v>
       </c>
@@ -9002,7 +9002,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="260" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>487</v>
       </c>
@@ -9019,7 +9019,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="261" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>489</v>
       </c>
@@ -9036,7 +9036,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="262" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>491</v>
       </c>
@@ -9053,7 +9053,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="263" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>493</v>
       </c>
@@ -9070,7 +9070,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="264" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>495</v>
       </c>
@@ -9087,7 +9087,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="265" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>497</v>
       </c>
@@ -9104,7 +9104,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="266" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>499</v>
       </c>
@@ -9121,7 +9121,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="267" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>501</v>
       </c>
@@ -9138,7 +9138,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>503</v>
       </c>
@@ -9155,7 +9155,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="269" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>503</v>
       </c>
@@ -9172,7 +9172,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="270" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>505</v>
       </c>
@@ -9189,7 +9189,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="271" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>507</v>
       </c>
@@ -9206,7 +9206,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="272" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>509</v>
       </c>
@@ -9223,7 +9223,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="273" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>511</v>
       </c>
@@ -9240,7 +9240,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="274" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>511</v>
       </c>
@@ -9257,7 +9257,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="275" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>513</v>
       </c>
@@ -9274,7 +9274,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="276" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>515</v>
       </c>
@@ -9291,7 +9291,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="277" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>517</v>
       </c>
@@ -9308,7 +9308,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="278" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>519</v>
       </c>
@@ -9325,7 +9325,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="279" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>521</v>
       </c>
@@ -9342,7 +9342,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="280" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>523</v>
       </c>
@@ -9359,7 +9359,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="281" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>525</v>
       </c>
@@ -9376,7 +9376,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="282" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>526</v>
       </c>
@@ -9393,7 +9393,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="283" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>528</v>
       </c>
@@ -9410,7 +9410,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="284" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>530</v>
       </c>
@@ -9427,7 +9427,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="285" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>532</v>
       </c>
@@ -9444,7 +9444,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="286" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>534</v>
       </c>
@@ -9461,7 +9461,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="287" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>536</v>
       </c>
@@ -9478,7 +9478,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="288" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>538</v>
       </c>
@@ -9495,7 +9495,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="289" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>540</v>
       </c>
@@ -9512,7 +9512,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="290" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>542</v>
       </c>
@@ -9529,7 +9529,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="291" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>544</v>
       </c>
@@ -9546,7 +9546,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="292" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>546</v>
       </c>
@@ -9563,7 +9563,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="293" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>548</v>
       </c>
@@ -9580,7 +9580,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="294" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>550</v>
       </c>
@@ -9597,7 +9597,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="295" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>552</v>
       </c>
@@ -9614,7 +9614,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="296" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>554</v>
       </c>
@@ -9631,7 +9631,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="297" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>556</v>
       </c>
@@ -9648,7 +9648,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="298" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>556</v>
       </c>
@@ -9665,7 +9665,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="299" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>558</v>
       </c>
@@ -9682,7 +9682,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="300" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>560</v>
       </c>
@@ -9699,7 +9699,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="301" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>562</v>
       </c>
@@ -9716,7 +9716,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="302" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>562</v>
       </c>
@@ -9733,7 +9733,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="303" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>564</v>
       </c>
@@ -9750,7 +9750,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="304" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>566</v>
       </c>
@@ -9767,7 +9767,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="305" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>568</v>
       </c>
@@ -9784,7 +9784,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="306" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>570</v>
       </c>
@@ -9801,7 +9801,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="307" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>570</v>
       </c>
@@ -9818,7 +9818,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="308" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>572</v>
       </c>
@@ -9835,7 +9835,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="309" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>574</v>
       </c>
@@ -9852,7 +9852,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="310" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>576</v>
       </c>
@@ -9869,7 +9869,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="311" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>578</v>
       </c>
@@ -9886,7 +9886,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="312" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>580</v>
       </c>
@@ -9903,7 +9903,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="313" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>582</v>
       </c>
@@ -9920,7 +9920,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="314" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>584</v>
       </c>
@@ -9937,7 +9937,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="315" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>586</v>
       </c>
@@ -9954,7 +9954,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="316" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>588</v>
       </c>
@@ -9971,7 +9971,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="317" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>590</v>
       </c>
@@ -9988,7 +9988,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="318" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>592</v>
       </c>
@@ -10005,7 +10005,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="319" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>594</v>
       </c>
@@ -10022,7 +10022,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="320" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>594</v>
       </c>
@@ -10039,7 +10039,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="321" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>596</v>
       </c>
@@ -10056,7 +10056,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="322" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>598</v>
       </c>
@@ -10073,7 +10073,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="323" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>600</v>
       </c>
@@ -10090,7 +10090,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="324" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>602</v>
       </c>
@@ -10107,7 +10107,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="325" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>604</v>
       </c>
@@ -10124,7 +10124,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="326" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>606</v>
       </c>
@@ -10141,7 +10141,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="327" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>608</v>
       </c>
@@ -10158,7 +10158,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="328" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>610</v>
       </c>
@@ -10175,7 +10175,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="329" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>612</v>
       </c>
@@ -10192,7 +10192,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="330" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>614</v>
       </c>
@@ -10209,7 +10209,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="331" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>614</v>
       </c>
@@ -10226,7 +10226,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="332" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>614</v>
       </c>
@@ -10243,7 +10243,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="333" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>616</v>
       </c>
@@ -10260,7 +10260,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="334" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>618</v>
       </c>
@@ -10277,7 +10277,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="335" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>620</v>
       </c>
@@ -10294,7 +10294,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="336" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>622</v>
       </c>
@@ -10311,7 +10311,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="337" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>624</v>
       </c>
@@ -10328,7 +10328,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="338" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>626</v>
       </c>
@@ -10345,7 +10345,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="339" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>628</v>
       </c>
@@ -10362,7 +10362,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="340" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>630</v>
       </c>
@@ -10379,7 +10379,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="341" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>630</v>
       </c>
@@ -10396,7 +10396,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="342" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>630</v>
       </c>
@@ -10413,7 +10413,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="343" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>630</v>
       </c>
@@ -10430,7 +10430,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="344" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>632</v>
       </c>
@@ -10447,7 +10447,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="345" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>634</v>
       </c>
@@ -10464,7 +10464,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="346" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>634</v>
       </c>
@@ -10481,7 +10481,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="347" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>634</v>
       </c>
@@ -10498,7 +10498,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="348" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>634</v>
       </c>
@@ -10515,7 +10515,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="349" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>634</v>
       </c>
@@ -10532,7 +10532,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="350" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>634</v>
       </c>
@@ -10549,7 +10549,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="351" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>634</v>
       </c>
@@ -10566,7 +10566,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="352" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>634</v>
       </c>
@@ -10583,7 +10583,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="353" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>634</v>
       </c>
@@ -10600,7 +10600,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="354" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>634</v>
       </c>
@@ -10617,7 +10617,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="355" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>634</v>
       </c>
@@ -10634,7 +10634,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="356" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>634</v>
       </c>
@@ -10651,7 +10651,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="357" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>634</v>
       </c>
@@ -10668,7 +10668,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="358" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>634</v>
       </c>
@@ -10685,7 +10685,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="359" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>634</v>
       </c>
@@ -10702,7 +10702,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="360" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>634</v>
       </c>
@@ -10719,7 +10719,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="361" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>634</v>
       </c>
@@ -10736,7 +10736,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="362" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>634</v>
       </c>
@@ -10753,7 +10753,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="363" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>634</v>
       </c>
@@ -10770,7 +10770,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="364" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>634</v>
       </c>
@@ -10787,7 +10787,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="365" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>636</v>
       </c>
@@ -10804,7 +10804,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="366" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>638</v>
       </c>
@@ -10821,7 +10821,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="367" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>640</v>
       </c>
@@ -10838,7 +10838,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="368" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>642</v>
       </c>
@@ -10855,7 +10855,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="369" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>644</v>
       </c>
@@ -10872,7 +10872,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="370" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>646</v>
       </c>
@@ -10889,7 +10889,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="371" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>648</v>
       </c>
@@ -10906,7 +10906,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="372" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>650</v>
       </c>
@@ -10923,7 +10923,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="373" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>652</v>
       </c>
@@ -10940,7 +10940,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="374" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>654</v>
       </c>
@@ -10957,7 +10957,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="375" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>656</v>
       </c>
@@ -10974,7 +10974,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="376" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>658</v>
       </c>
@@ -10991,7 +10991,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="377" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>660</v>
       </c>
@@ -11008,7 +11008,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="378" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>662</v>
       </c>
@@ -11025,7 +11025,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="379" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>662</v>
       </c>
@@ -11042,7 +11042,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="380" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>664</v>
       </c>
@@ -11059,7 +11059,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="381" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>666</v>
       </c>
@@ -11076,7 +11076,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="382" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>668</v>
       </c>
@@ -11093,7 +11093,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="383" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>670</v>
       </c>
@@ -11110,7 +11110,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="384" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>672</v>
       </c>
@@ -11127,7 +11127,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="385" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>674</v>
       </c>
@@ -11144,7 +11144,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="386" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>676</v>
       </c>
@@ -11161,7 +11161,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="387" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>678</v>
       </c>
@@ -11178,7 +11178,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="388" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>680</v>
       </c>
@@ -11195,7 +11195,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="389" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>682</v>
       </c>
@@ -11212,7 +11212,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="390" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>684</v>
       </c>
@@ -11229,7 +11229,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="391" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>686</v>
       </c>
@@ -11246,7 +11246,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="392" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>688</v>
       </c>
@@ -11263,7 +11263,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="393" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>690</v>
       </c>
@@ -11280,7 +11280,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="394" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>692</v>
       </c>
@@ -11297,7 +11297,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="395" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>694</v>
       </c>
@@ -11314,7 +11314,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="396" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>696</v>
       </c>
@@ -11331,7 +11331,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="397" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>698</v>
       </c>
@@ -11348,7 +11348,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="398" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>698</v>
       </c>
@@ -11365,7 +11365,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="399" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>700</v>
       </c>
@@ -11382,7 +11382,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="400" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>702</v>
       </c>
@@ -11399,7 +11399,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="401" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>704</v>
       </c>
@@ -11416,7 +11416,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="402" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>706</v>
       </c>
@@ -11433,7 +11433,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="403" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>708</v>
       </c>
@@ -11450,7 +11450,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="404" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>710</v>
       </c>
@@ -11467,7 +11467,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="405" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>712</v>
       </c>
@@ -11484,7 +11484,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="406" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>714</v>
       </c>
@@ -11501,7 +11501,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="407" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>716</v>
       </c>
@@ -11518,7 +11518,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="408" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>718</v>
       </c>
@@ -11535,7 +11535,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="409" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>720</v>
       </c>
@@ -11552,7 +11552,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="410" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>722</v>
       </c>
@@ -11569,7 +11569,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="411" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>724</v>
       </c>
@@ -11586,7 +11586,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="412" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>726</v>
       </c>
@@ -11603,7 +11603,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="413" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>728</v>
       </c>
@@ -11620,7 +11620,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="414" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>730</v>
       </c>
@@ -11637,7 +11637,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="415" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>732</v>
       </c>
@@ -11654,7 +11654,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="416" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>734</v>
       </c>
@@ -11671,7 +11671,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="417" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>734</v>
       </c>
@@ -11688,7 +11688,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="418" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>736</v>
       </c>
@@ -11705,7 +11705,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="419" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>738</v>
       </c>
@@ -11722,7 +11722,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="420" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>740</v>
       </c>
@@ -11739,7 +11739,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="421" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>742</v>
       </c>
@@ -11756,7 +11756,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="422" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>744</v>
       </c>
@@ -11773,7 +11773,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="423" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>746</v>
       </c>
@@ -11790,7 +11790,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="424" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>748</v>
       </c>
@@ -11807,7 +11807,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="425" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>748</v>
       </c>
@@ -11824,7 +11824,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="426" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>750</v>
       </c>
@@ -11841,7 +11841,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="427" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>752</v>
       </c>
@@ -11858,7 +11858,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="428" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>752</v>
       </c>
@@ -11875,7 +11875,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="429" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>754</v>
       </c>
@@ -11892,7 +11892,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="430" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>756</v>
       </c>
@@ -11909,7 +11909,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="431" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>758</v>
       </c>
@@ -11926,7 +11926,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="432" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>760</v>
       </c>
@@ -11943,7 +11943,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="433" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>762</v>
       </c>
@@ -11960,7 +11960,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="434" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>764</v>
       </c>
@@ -11977,7 +11977,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="435" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>766</v>
       </c>
@@ -11994,7 +11994,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="436" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>766</v>
       </c>
@@ -12011,7 +12011,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="437" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>768</v>
       </c>
@@ -12028,7 +12028,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="438" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>770</v>
       </c>
@@ -12045,7 +12045,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="439" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>772</v>
       </c>
@@ -12062,7 +12062,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="440" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>774</v>
       </c>
@@ -12079,7 +12079,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="441" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>776</v>
       </c>
@@ -12096,7 +12096,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="442" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>778</v>
       </c>
@@ -12113,7 +12113,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="443" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>780</v>
       </c>
@@ -12130,7 +12130,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="444" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>780</v>
       </c>
@@ -12147,7 +12147,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="445" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>780</v>
       </c>
@@ -12164,7 +12164,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="446" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>782</v>
       </c>
@@ -12181,7 +12181,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="447" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>784</v>
       </c>
@@ -12198,7 +12198,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="448" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>786</v>
       </c>
@@ -12215,7 +12215,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="449" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>788</v>
       </c>
@@ -12232,7 +12232,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="450" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>790</v>
       </c>
@@ -12249,7 +12249,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="451" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>792</v>
       </c>
@@ -12266,7 +12266,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="452" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>794</v>
       </c>
@@ -12283,7 +12283,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="453" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>796</v>
       </c>
@@ -12300,7 +12300,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="454" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>798</v>
       </c>
@@ -12317,7 +12317,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="455" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>798</v>
       </c>
@@ -12334,7 +12334,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="456" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>800</v>
       </c>
@@ -12351,7 +12351,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="457" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>802</v>
       </c>
@@ -12368,7 +12368,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="458" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>804</v>
       </c>
@@ -12385,7 +12385,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="459" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>806</v>
       </c>
@@ -12402,7 +12402,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="460" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>808</v>
       </c>
@@ -12419,7 +12419,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="461" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>810</v>
       </c>
@@ -12436,7 +12436,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="462" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>812</v>
       </c>
@@ -12453,7 +12453,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="463" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>814</v>
       </c>
@@ -12470,7 +12470,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="464" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>816</v>
       </c>
@@ -12487,7 +12487,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="465" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>818</v>
       </c>
@@ -12504,7 +12504,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="466" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>820</v>
       </c>
@@ -12521,7 +12521,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="467" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>822</v>
       </c>
@@ -12538,7 +12538,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="468" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>824</v>
       </c>
@@ -12555,7 +12555,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="469" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>826</v>
       </c>
@@ -12572,7 +12572,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="470" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>828</v>
       </c>
@@ -12589,7 +12589,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="471" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>830</v>
       </c>
@@ -12606,7 +12606,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="472" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>832</v>
       </c>
@@ -12623,7 +12623,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="473" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>834</v>
       </c>
@@ -12640,7 +12640,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="474" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>836</v>
       </c>
@@ -12657,7 +12657,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="475" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>838</v>
       </c>
@@ -12674,7 +12674,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="476" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>840</v>
       </c>
@@ -12691,7 +12691,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="477" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>842</v>
       </c>
@@ -12708,7 +12708,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="478" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>844</v>
       </c>
@@ -12725,7 +12725,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="479" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>846</v>
       </c>
@@ -12742,7 +12742,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="480" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>848</v>
       </c>
@@ -12759,7 +12759,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="481" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>850</v>
       </c>
@@ -12776,7 +12776,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="482" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>852</v>
       </c>
@@ -12793,7 +12793,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="483" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>852</v>
       </c>
@@ -12810,7 +12810,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="484" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>854</v>
       </c>
@@ -12827,7 +12827,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="485" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>856</v>
       </c>
@@ -12844,7 +12844,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="486" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>858</v>
       </c>
@@ -12861,7 +12861,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="487" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>860</v>
       </c>
@@ -12878,7 +12878,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="488" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>862</v>
       </c>
@@ -12895,7 +12895,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="489" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>864</v>
       </c>
@@ -12912,7 +12912,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="490" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>866</v>
       </c>
@@ -12929,7 +12929,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="491" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>868</v>
       </c>
@@ -12946,7 +12946,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="492" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>870</v>
       </c>
@@ -12963,7 +12963,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="493" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>872</v>
       </c>
@@ -12980,7 +12980,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="494" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>874</v>
       </c>
@@ -12997,7 +12997,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="495" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>876</v>
       </c>
@@ -13014,7 +13014,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="496" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>878</v>
       </c>
@@ -13031,7 +13031,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="497" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>880</v>
       </c>
@@ -13048,7 +13048,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="498" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>882</v>
       </c>
@@ -13065,7 +13065,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="499" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>884</v>
       </c>
@@ -13082,7 +13082,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="500" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>886</v>
       </c>
@@ -13099,7 +13099,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="501" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>886</v>
       </c>
@@ -13116,7 +13116,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="502" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>888</v>
       </c>
@@ -13133,7 +13133,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="503" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>890</v>
       </c>
@@ -13150,7 +13150,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="504" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>892</v>
       </c>
@@ -13167,7 +13167,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="505" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>894</v>
       </c>
@@ -13184,7 +13184,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="506" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>896</v>
       </c>
@@ -13201,7 +13201,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="507" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>898</v>
       </c>
@@ -13218,7 +13218,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="508" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>900</v>
       </c>
@@ -13235,7 +13235,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="509" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>902</v>
       </c>
@@ -13252,7 +13252,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="510" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>904</v>
       </c>
@@ -13269,7 +13269,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="511" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>906</v>
       </c>
@@ -13286,7 +13286,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="512" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>908</v>
       </c>
@@ -13303,7 +13303,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="513" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>910</v>
       </c>
@@ -13320,7 +13320,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="514" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>912</v>
       </c>
@@ -13337,7 +13337,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="515" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>914</v>
       </c>
@@ -13354,7 +13354,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="516" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>916</v>
       </c>
@@ -13371,7 +13371,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="517" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>918</v>
       </c>
@@ -13388,7 +13388,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="518" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>920</v>
       </c>
@@ -13405,7 +13405,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="519" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>922</v>
       </c>
@@ -13422,7 +13422,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="520" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>924</v>
       </c>
@@ -13439,7 +13439,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="521" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>926</v>
       </c>
@@ -13456,7 +13456,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="522" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>928</v>
       </c>
@@ -13473,7 +13473,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="523" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>930</v>
       </c>
@@ -13490,7 +13490,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="524" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>932</v>
       </c>
@@ -13507,7 +13507,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="525" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>934</v>
       </c>
@@ -13524,7 +13524,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="526" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>936</v>
       </c>
@@ -13541,7 +13541,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="527" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>938</v>
       </c>
@@ -13558,7 +13558,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="528" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>938</v>
       </c>
@@ -13575,7 +13575,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="529" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>940</v>
       </c>
@@ -13592,7 +13592,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="530" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>942</v>
       </c>
@@ -13609,7 +13609,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="531" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>944</v>
       </c>
@@ -13626,7 +13626,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="532" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>946</v>
       </c>
@@ -13643,7 +13643,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="533" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>948</v>
       </c>
@@ -13660,7 +13660,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="534" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>950</v>
       </c>
@@ -13677,7 +13677,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="535" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>952</v>
       </c>
@@ -13694,7 +13694,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="536" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>954</v>
       </c>
@@ -13711,7 +13711,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="537" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>954</v>
       </c>
@@ -13728,7 +13728,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="538" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>956</v>
       </c>
@@ -13745,7 +13745,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="539" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>958</v>
       </c>
@@ -13762,7 +13762,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="540" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>960</v>
       </c>
@@ -13779,7 +13779,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="541" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>960</v>
       </c>
@@ -13796,7 +13796,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="542" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>962</v>
       </c>
@@ -13813,7 +13813,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="543" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>964</v>
       </c>
@@ -13830,7 +13830,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="544" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>966</v>
       </c>
@@ -13847,7 +13847,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="545" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>968</v>
       </c>
@@ -13864,7 +13864,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="546" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>970</v>
       </c>
@@ -13881,7 +13881,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="547" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>972</v>
       </c>
@@ -13898,7 +13898,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="548" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>974</v>
       </c>
@@ -13915,7 +13915,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="549" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>976</v>
       </c>
@@ -13932,7 +13932,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="550" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
         <v>978</v>
       </c>
@@ -13949,7 +13949,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="551" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>980</v>
       </c>
@@ -13966,7 +13966,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="552" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>982</v>
       </c>
@@ -13983,7 +13983,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="553" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>984</v>
       </c>
@@ -14000,7 +14000,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="554" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>986</v>
       </c>
@@ -14017,7 +14017,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="555" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
         <v>988</v>
       </c>
@@ -14034,7 +14034,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="556" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>990</v>
       </c>
@@ -14051,7 +14051,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="557" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>992</v>
       </c>
@@ -14068,7 +14068,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="558" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
         <v>992</v>
       </c>
@@ -14085,7 +14085,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="559" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>994</v>
       </c>
@@ -14102,7 +14102,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="560" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>996</v>
       </c>
@@ -14119,7 +14119,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="561" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>998</v>
       </c>
@@ -14136,7 +14136,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="562" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>1000</v>
       </c>
@@ -14153,7 +14153,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="563" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>1002</v>
       </c>
@@ -14170,7 +14170,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="564" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
         <v>1002</v>
       </c>
@@ -14187,7 +14187,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="565" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>1004</v>
       </c>
@@ -14204,7 +14204,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="566" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>1006</v>
       </c>
@@ -14221,7 +14221,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="567" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>1008</v>
       </c>
@@ -14238,7 +14238,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="568" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>1010</v>
       </c>
@@ -14255,7 +14255,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="569" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
         <v>1012</v>
       </c>
@@ -14272,7 +14272,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="570" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>1014</v>
       </c>
@@ -14289,7 +14289,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="571" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>1016</v>
       </c>
@@ -14306,7 +14306,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="572" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
         <v>1018</v>
       </c>
@@ -14323,7 +14323,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="573" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
         <v>1020</v>
       </c>
@@ -14340,7 +14340,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="574" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>1022</v>
       </c>
@@ -14357,7 +14357,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="575" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
         <v>1024</v>
       </c>
@@ -14374,7 +14374,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="576" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
         <v>1026</v>
       </c>
@@ -14391,7 +14391,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="577" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
         <v>1028</v>
       </c>
@@ -14408,7 +14408,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="578" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>1030</v>
       </c>
@@ -14425,7 +14425,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="579" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>1032</v>
       </c>
@@ -14442,7 +14442,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="580" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
         <v>1034</v>
       </c>
@@ -14459,7 +14459,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="581" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
         <v>1036</v>
       </c>
@@ -14476,7 +14476,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="582" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
         <v>1038</v>
       </c>
@@ -14493,7 +14493,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="583" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
         <v>1040</v>
       </c>
@@ -14510,7 +14510,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="584" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
         <v>1042</v>
       </c>
@@ -14527,7 +14527,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="585" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
         <v>1044</v>
       </c>
@@ -14544,7 +14544,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="586" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
         <v>1046</v>
       </c>
@@ -14561,7 +14561,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="587" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
         <v>1048</v>
       </c>
@@ -14578,7 +14578,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="588" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
         <v>1050</v>
       </c>
@@ -14595,7 +14595,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="589" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
         <v>1052</v>
       </c>
@@ -14612,7 +14612,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="590" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
         <v>1054</v>
       </c>
@@ -14629,7 +14629,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="591" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
         <v>1056</v>
       </c>
@@ -14646,7 +14646,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="592" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
         <v>1058</v>
       </c>
@@ -14663,7 +14663,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="593" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
         <v>1060</v>
       </c>
@@ -14680,7 +14680,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="594" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
         <v>1062</v>
       </c>
@@ -14697,7 +14697,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="595" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
         <v>1064</v>
       </c>
@@ -14714,7 +14714,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="596" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
         <v>1066</v>
       </c>
@@ -14731,7 +14731,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="597" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
         <v>1067</v>
       </c>
@@ -14748,7 +14748,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="598" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
         <v>1069</v>
       </c>
@@ -14765,7 +14765,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="599" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
         <v>1071</v>
       </c>
@@ -14782,7 +14782,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="600" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
         <v>1073</v>
       </c>
@@ -14799,7 +14799,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="601" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
         <v>1073</v>
       </c>
@@ -14816,7 +14816,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="602" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
         <v>1075</v>
       </c>
@@ -14833,7 +14833,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="603" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
         <v>1077</v>
       </c>
@@ -14850,7 +14850,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="604" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
         <v>1079</v>
       </c>
@@ -14867,7 +14867,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="605" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
         <v>1081</v>
       </c>
@@ -14884,7 +14884,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="606" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
         <v>1083</v>
       </c>
@@ -14901,7 +14901,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="607" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
         <v>1085</v>
       </c>
@@ -14918,7 +14918,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="608" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
         <v>1087</v>
       </c>
@@ -14935,7 +14935,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="609" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
         <v>1089</v>
       </c>
@@ -14952,7 +14952,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="610" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
         <v>1091</v>
       </c>
@@ -14969,7 +14969,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="611" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
         <v>1093</v>
       </c>
@@ -14986,7 +14986,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="612" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
         <v>1095</v>
       </c>
@@ -15003,7 +15003,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="613" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
         <v>1097</v>
       </c>
@@ -15020,7 +15020,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="614" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
         <v>1097</v>
       </c>
@@ -15037,7 +15037,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="615" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
         <v>1097</v>
       </c>
@@ -15054,7 +15054,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="616" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
         <v>1097</v>
       </c>
@@ -15071,7 +15071,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="617" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
         <v>1097</v>
       </c>
@@ -15088,7 +15088,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="618" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
         <v>1097</v>
       </c>
@@ -15105,7 +15105,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="619" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
         <v>1097</v>
       </c>
@@ -15122,7 +15122,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="620" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
         <v>1097</v>
       </c>
@@ -15139,7 +15139,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="621" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
         <v>1097</v>
       </c>
@@ -15156,7 +15156,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="622" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
         <v>1097</v>
       </c>
@@ -15173,7 +15173,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="623" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
         <v>1097</v>
       </c>
@@ -15190,7 +15190,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="624" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
         <v>1097</v>
       </c>
@@ -15207,7 +15207,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="625" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
         <v>1097</v>
       </c>
@@ -15224,7 +15224,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="626" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
         <v>1097</v>
       </c>
@@ -15241,7 +15241,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="627" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
         <v>1099</v>
       </c>
@@ -15258,7 +15258,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="628" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
         <v>1101</v>
       </c>
@@ -15275,7 +15275,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="629" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
         <v>1103</v>
       </c>
@@ -15292,7 +15292,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="630" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A630" t="s">
         <v>1105</v>
       </c>
@@ -15309,7 +15309,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="631" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
         <v>1107</v>
       </c>
@@ -15326,7 +15326,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="632" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A632" t="s">
         <v>1109</v>
       </c>
@@ -15343,7 +15343,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="633" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A633" t="s">
         <v>1111</v>
       </c>
@@ -15360,7 +15360,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="634" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A634" t="s">
         <v>1113</v>
       </c>
@@ -15377,7 +15377,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="635" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A635" t="s">
         <v>1115</v>
       </c>
@@ -15394,7 +15394,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="636" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A636" t="s">
         <v>1117</v>
       </c>
@@ -15411,7 +15411,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="637" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A637" t="s">
         <v>1119</v>
       </c>
@@ -15428,7 +15428,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="638" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A638" t="s">
         <v>1121</v>
       </c>
@@ -15445,7 +15445,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="639" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A639" t="s">
         <v>1123</v>
       </c>
@@ -15462,7 +15462,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="640" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A640" t="s">
         <v>1125</v>
       </c>
@@ -15479,7 +15479,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="641" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A641" t="s">
         <v>1127</v>
       </c>
@@ -15496,7 +15496,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="642" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A642" t="s">
         <v>1129</v>
       </c>
@@ -15513,7 +15513,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="643" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A643" t="s">
         <v>1131</v>
       </c>
@@ -15530,7 +15530,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="644" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A644" t="s">
         <v>1133</v>
       </c>
@@ -15547,7 +15547,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="645" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A645" t="s">
         <v>1135</v>
       </c>
@@ -15564,7 +15564,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="646" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A646" t="s">
         <v>1137</v>
       </c>
@@ -15581,7 +15581,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="647" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A647" t="s">
         <v>1139</v>
       </c>
@@ -15598,7 +15598,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="648" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A648" t="s">
         <v>1141</v>
       </c>
@@ -15615,7 +15615,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="649" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A649" t="s">
         <v>1143</v>
       </c>
@@ -15632,7 +15632,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="650" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A650" t="s">
         <v>1145</v>
       </c>
@@ -15649,7 +15649,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="651" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A651" t="s">
         <v>1147</v>
       </c>
@@ -15666,7 +15666,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="652" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A652" t="s">
         <v>1149</v>
       </c>
@@ -15683,7 +15683,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="653" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A653" t="s">
         <v>1149</v>
       </c>
@@ -15700,7 +15700,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="654" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A654" t="s">
         <v>1149</v>
       </c>
@@ -15717,7 +15717,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="655" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A655" t="s">
         <v>1149</v>
       </c>
@@ -15734,7 +15734,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="656" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A656" t="s">
         <v>1149</v>
       </c>
@@ -15751,7 +15751,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="657" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A657" t="s">
         <v>1149</v>
       </c>
@@ -15768,7 +15768,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="658" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A658" t="s">
         <v>1151</v>
       </c>
@@ -15785,7 +15785,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="659" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A659" t="s">
         <v>1153</v>
       </c>
@@ -15802,7 +15802,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="660" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A660" t="s">
         <v>1155</v>
       </c>
@@ -15819,7 +15819,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="661" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A661" t="s">
         <v>1157</v>
       </c>
@@ -15836,7 +15836,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="662" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A662" t="s">
         <v>1159</v>
       </c>
@@ -15853,7 +15853,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="663" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A663" t="s">
         <v>1159</v>
       </c>
@@ -15870,7 +15870,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="664" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A664" t="s">
         <v>1159</v>
       </c>
@@ -15887,7 +15887,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="665" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A665" t="s">
         <v>1159</v>
       </c>
@@ -15904,7 +15904,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="666" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A666" t="s">
         <v>1159</v>
       </c>
@@ -15921,7 +15921,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="667" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A667" t="s">
         <v>1159</v>
       </c>
@@ -15938,7 +15938,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="668" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A668" t="s">
         <v>1159</v>
       </c>
@@ -15955,7 +15955,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="669" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A669" t="s">
         <v>1159</v>
       </c>
@@ -15972,7 +15972,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="670" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A670" t="s">
         <v>1159</v>
       </c>
@@ -15989,7 +15989,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="671" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A671" t="s">
         <v>1159</v>
       </c>
@@ -16006,7 +16006,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="672" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A672" t="s">
         <v>1161</v>
       </c>
@@ -16023,7 +16023,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="673" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A673" t="s">
         <v>1163</v>
       </c>
@@ -16040,7 +16040,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="674" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A674" t="s">
         <v>1163</v>
       </c>
@@ -16057,7 +16057,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="675" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A675" t="s">
         <v>1165</v>
       </c>
@@ -16074,7 +16074,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="676" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A676" t="s">
         <v>1167</v>
       </c>
@@ -16091,7 +16091,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="677" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A677" t="s">
         <v>1169</v>
       </c>
@@ -16108,7 +16108,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="678" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A678" t="s">
         <v>1171</v>
       </c>
@@ -16125,7 +16125,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="679" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A679" t="s">
         <v>1173</v>
       </c>
@@ -16142,7 +16142,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="680" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A680" t="s">
         <v>1173</v>
       </c>
@@ -16159,7 +16159,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="681" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A681" t="s">
         <v>1175</v>
       </c>
@@ -16176,7 +16176,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="682" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A682" t="s">
         <v>1177</v>
       </c>
@@ -16193,7 +16193,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="683" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A683" t="s">
         <v>1179</v>
       </c>
@@ -16210,7 +16210,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="684" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A684" t="s">
         <v>1181</v>
       </c>
@@ -16227,7 +16227,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="685" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A685" t="s">
         <v>1183</v>
       </c>
@@ -16244,7 +16244,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="686" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A686" t="s">
         <v>1185</v>
       </c>
@@ -16261,7 +16261,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="687" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A687" t="s">
         <v>1187</v>
       </c>
@@ -16278,7 +16278,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="688" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A688" t="s">
         <v>1187</v>
       </c>
@@ -16295,7 +16295,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="689" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A689" t="s">
         <v>1189</v>
       </c>
@@ -16312,7 +16312,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="690" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A690" t="s">
         <v>1191</v>
       </c>
@@ -16329,7 +16329,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="691" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A691" t="s">
         <v>1193</v>
       </c>
@@ -16346,7 +16346,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="692" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A692" t="s">
         <v>1195</v>
       </c>
@@ -16363,7 +16363,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="693" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A693" t="s">
         <v>1197</v>
       </c>
@@ -16380,7 +16380,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="694" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A694" t="s">
         <v>1199</v>
       </c>
@@ -16397,7 +16397,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="695" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A695" t="s">
         <v>1201</v>
       </c>
@@ -16414,7 +16414,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="696" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A696" t="s">
         <v>1203</v>
       </c>
@@ -16431,7 +16431,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="697" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A697" t="s">
         <v>1205</v>
       </c>
@@ -16448,7 +16448,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="698" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A698" t="s">
         <v>1207</v>
       </c>
@@ -16465,7 +16465,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="699" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A699" t="s">
         <v>1209</v>
       </c>
@@ -16482,7 +16482,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="700" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A700" t="s">
         <v>1211</v>
       </c>
@@ -16499,7 +16499,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="701" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A701" t="s">
         <v>1213</v>
       </c>
@@ -16516,7 +16516,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="702" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A702" t="s">
         <v>1215</v>
       </c>
@@ -16533,7 +16533,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="703" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A703" t="s">
         <v>1217</v>
       </c>
@@ -16550,7 +16550,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="704" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A704" t="s">
         <v>1219</v>
       </c>
@@ -16567,7 +16567,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="705" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A705" t="s">
         <v>1221</v>
       </c>
@@ -16584,7 +16584,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="706" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A706" t="s">
         <v>1223</v>
       </c>
@@ -16601,7 +16601,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="707" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A707" t="s">
         <v>1225</v>
       </c>
@@ -16618,7 +16618,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="708" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A708" t="s">
         <v>1227</v>
       </c>
@@ -16635,7 +16635,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="709" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A709" t="s">
         <v>1229</v>
       </c>
@@ -16652,7 +16652,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="710" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A710" t="s">
         <v>1231</v>
       </c>
@@ -16669,7 +16669,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="711" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A711" t="s">
         <v>1233</v>
       </c>
@@ -16686,7 +16686,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="712" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A712" t="s">
         <v>1235</v>
       </c>
@@ -16703,7 +16703,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="713" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A713" t="s">
         <v>1237</v>
       </c>
@@ -16720,7 +16720,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="714" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A714" t="s">
         <v>1239</v>
       </c>
@@ -16737,7 +16737,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="715" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A715" t="s">
         <v>1241</v>
       </c>
@@ -16754,7 +16754,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="716" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A716" t="s">
         <v>1243</v>
       </c>
@@ -16771,7 +16771,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="717" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A717" t="s">
         <v>1243</v>
       </c>
@@ -16788,7 +16788,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="718" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A718" t="s">
         <v>1245</v>
       </c>
@@ -16805,7 +16805,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="719" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A719" t="s">
         <v>1247</v>
       </c>
@@ -16822,7 +16822,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="720" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A720" t="s">
         <v>1249</v>
       </c>
@@ -16839,7 +16839,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="721" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A721" t="s">
         <v>1251</v>
       </c>
@@ -16856,7 +16856,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="722" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A722" t="s">
         <v>1253</v>
       </c>
@@ -16873,7 +16873,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="723" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A723" t="s">
         <v>1255</v>
       </c>
@@ -16890,7 +16890,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="724" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A724" t="s">
         <v>1257</v>
       </c>
@@ -16907,7 +16907,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="725" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A725" t="s">
         <v>1259</v>
       </c>
@@ -16924,7 +16924,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="726" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A726" t="s">
         <v>1261</v>
       </c>
@@ -16941,7 +16941,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="727" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A727" t="s">
         <v>1263</v>
       </c>
@@ -16958,7 +16958,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="728" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A728" t="s">
         <v>1265</v>
       </c>
@@ -16975,7 +16975,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="729" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A729" t="s">
         <v>1265</v>
       </c>
@@ -16992,7 +16992,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="730" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A730" t="s">
         <v>1267</v>
       </c>
@@ -17009,7 +17009,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="731" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A731" t="s">
         <v>1269</v>
       </c>
@@ -17026,7 +17026,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="732" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A732" t="s">
         <v>1271</v>
       </c>
@@ -17043,7 +17043,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="733" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A733" t="s">
         <v>1273</v>
       </c>
@@ -17060,7 +17060,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="734" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A734" t="s">
         <v>1273</v>
       </c>
@@ -17077,7 +17077,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="735" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A735" t="s">
         <v>1275</v>
       </c>
@@ -17094,7 +17094,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="736" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A736" t="s">
         <v>1277</v>
       </c>
@@ -17111,7 +17111,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="737" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A737" t="s">
         <v>1279</v>
       </c>
@@ -17128,7 +17128,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="738" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A738" t="s">
         <v>1281</v>
       </c>
@@ -17145,7 +17145,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="739" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A739" t="s">
         <v>1283</v>
       </c>
@@ -17162,7 +17162,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="740" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A740" t="s">
         <v>1283</v>
       </c>
@@ -17179,7 +17179,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="741" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A741" t="s">
         <v>1285</v>
       </c>
@@ -17196,7 +17196,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="742" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A742" t="s">
         <v>1287</v>
       </c>
@@ -17213,7 +17213,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="743" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A743" t="s">
         <v>1289</v>
       </c>
@@ -17230,7 +17230,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="744" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A744" t="s">
         <v>1291</v>
       </c>
@@ -17247,7 +17247,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="745" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A745" t="s">
         <v>1291</v>
       </c>
@@ -17264,7 +17264,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="746" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A746" t="s">
         <v>1291</v>
       </c>
@@ -17281,7 +17281,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="747" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A747" t="s">
         <v>1291</v>
       </c>
@@ -17298,7 +17298,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="748" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A748" t="s">
         <v>1291</v>
       </c>
@@ -17315,7 +17315,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="749" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A749" t="s">
         <v>1293</v>
       </c>
@@ -17332,7 +17332,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="750" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A750" t="s">
         <v>1295</v>
       </c>
@@ -17349,7 +17349,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="751" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A751" t="s">
         <v>1297</v>
       </c>
@@ -17366,7 +17366,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="752" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A752" t="s">
         <v>1299</v>
       </c>
@@ -17383,7 +17383,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="753" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A753" t="s">
         <v>1301</v>
       </c>
@@ -17400,7 +17400,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="754" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A754" t="s">
         <v>1303</v>
       </c>
@@ -17417,7 +17417,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="755" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A755" t="s">
         <v>1305</v>
       </c>
@@ -17434,7 +17434,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="756" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A756" t="s">
         <v>1307</v>
       </c>
@@ -17451,7 +17451,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="757" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A757" t="s">
         <v>1309</v>
       </c>
@@ -17468,7 +17468,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="758" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A758" t="s">
         <v>1311</v>
       </c>
@@ -17485,7 +17485,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="759" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A759" t="s">
         <v>1313</v>
       </c>
@@ -17502,7 +17502,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="760" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A760" t="s">
         <v>1315</v>
       </c>
@@ -17519,7 +17519,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="761" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A761" t="s">
         <v>1317</v>
       </c>
@@ -17536,7 +17536,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="762" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A762" t="s">
         <v>1319</v>
       </c>
@@ -17553,7 +17553,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="763" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A763" t="s">
         <v>1321</v>
       </c>
@@ -17570,7 +17570,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="764" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A764" t="s">
         <v>1323</v>
       </c>
@@ -17587,7 +17587,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="765" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A765" t="s">
         <v>1325</v>
       </c>
@@ -17604,7 +17604,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="766" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A766" t="s">
         <v>1327</v>
       </c>
@@ -17621,7 +17621,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="767" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A767" t="s">
         <v>1329</v>
       </c>
@@ -17638,7 +17638,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="768" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A768" t="s">
         <v>1331</v>
       </c>
@@ -17655,7 +17655,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="769" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A769" t="s">
         <v>1333</v>
       </c>
@@ -17672,7 +17672,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="770" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A770" t="s">
         <v>1335</v>
       </c>
@@ -17689,7 +17689,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="771" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A771" t="s">
         <v>1337</v>
       </c>
@@ -17706,7 +17706,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="772" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A772" t="s">
         <v>1339</v>
       </c>
@@ -17723,7 +17723,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="773" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A773" t="s">
         <v>1341</v>
       </c>
@@ -17740,7 +17740,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="774" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A774" t="s">
         <v>1343</v>
       </c>
@@ -17757,7 +17757,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="775" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A775" t="s">
         <v>1345</v>
       </c>
@@ -17774,7 +17774,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="776" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A776" t="s">
         <v>1347</v>
       </c>
@@ -17791,7 +17791,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="777" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A777" t="s">
         <v>1349</v>
       </c>
@@ -17808,7 +17808,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="778" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A778" t="s">
         <v>1351</v>
       </c>
@@ -17825,7 +17825,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="779" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A779" t="s">
         <v>1353</v>
       </c>
@@ -17842,7 +17842,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="780" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A780" t="s">
         <v>1355</v>
       </c>
@@ -17859,7 +17859,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="781" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A781" t="s">
         <v>1357</v>
       </c>
@@ -17876,7 +17876,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="782" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A782" t="s">
         <v>1359</v>
       </c>
@@ -17893,7 +17893,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="783" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A783" t="s">
         <v>1361</v>
       </c>
@@ -17910,7 +17910,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="784" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A784" t="s">
         <v>1363</v>
       </c>
@@ -17927,7 +17927,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="785" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A785" t="s">
         <v>1365</v>
       </c>
@@ -17944,7 +17944,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="786" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A786" t="s">
         <v>1367</v>
       </c>
@@ -17961,7 +17961,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="787" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A787" t="s">
         <v>1369</v>
       </c>
@@ -17978,7 +17978,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="788" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A788" t="s">
         <v>1371</v>
       </c>
@@ -17995,7 +17995,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="789" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A789" t="s">
         <v>1373</v>
       </c>
@@ -18012,7 +18012,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="790" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A790" t="s">
         <v>1373</v>
       </c>
@@ -18029,7 +18029,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="791" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A791" t="s">
         <v>1375</v>
       </c>
@@ -18046,7 +18046,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="792" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A792" t="s">
         <v>1375</v>
       </c>
@@ -18063,7 +18063,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="793" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A793" t="s">
         <v>1377</v>
       </c>
@@ -18080,7 +18080,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="794" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A794" t="s">
         <v>1379</v>
       </c>
@@ -18097,7 +18097,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="795" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A795" t="s">
         <v>1381</v>
       </c>
@@ -18114,7 +18114,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="796" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A796" t="s">
         <v>1383</v>
       </c>
@@ -18131,7 +18131,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="797" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A797" t="s">
         <v>1385</v>
       </c>
@@ -18148,7 +18148,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="798" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A798" t="s">
         <v>1387</v>
       </c>
@@ -18165,7 +18165,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="799" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A799" t="s">
         <v>1389</v>
       </c>
@@ -18182,7 +18182,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="800" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A800" t="s">
         <v>1391</v>
       </c>
@@ -18199,7 +18199,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="801" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A801" t="s">
         <v>1393</v>
       </c>
@@ -18218,9 +18218,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:E801" xr:uid="{51088D9D-62B7-41E4-8B76-6FFB3F0B2EDC}">
-    <filterColumn colId="1">
+    <filterColumn colId="0">
       <filters>
-        <filter val="AGROIMPULSORA CUAMANCO"/>
+        <filter val="500291"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -18229,6 +18229,28 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="043cc7b2-80f4-4f5c-8b19-3681e54e1ba2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <Completo xmlns="043cc7b2-80f4-4f5c-8b19-3681e54e1ba2" xsi:nil="true"/>
+    <Notas xmlns="043cc7b2-80f4-4f5c-8b19-3681e54e1ba2" xsi:nil="true"/>
+    <TaxCatchAll xmlns="0e4cfebf-c1cd-4cb6-a3c7-8113325cd164" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010018D9DB4E7D59494481FC469365078EDC" ma:contentTypeVersion="16" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="acbafde73f9b496d5e4b44dfadfbc68f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="043cc7b2-80f4-4f5c-8b19-3681e54e1ba2" xmlns:ns3="0e4cfebf-c1cd-4cb6-a3c7-8113325cd164" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6534ac31db0e5cfcc65daaaf9d9eb6b8" ns2:_="" ns3:_="">
     <xsd:import namespace="043cc7b2-80f4-4f5c-8b19-3681e54e1ba2"/>
@@ -18469,29 +18491,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47DF324D-5AB6-463D-9483-C861984A3052}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="043cc7b2-80f4-4f5c-8b19-3681e54e1ba2"/>
+    <ds:schemaRef ds:uri="0e4cfebf-c1cd-4cb6-a3c7-8113325cd164"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="043cc7b2-80f4-4f5c-8b19-3681e54e1ba2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <Completo xmlns="043cc7b2-80f4-4f5c-8b19-3681e54e1ba2" xsi:nil="true"/>
-    <Notas xmlns="043cc7b2-80f4-4f5c-8b19-3681e54e1ba2" xsi:nil="true"/>
-    <TaxCatchAll xmlns="0e4cfebf-c1cd-4cb6-a3c7-8113325cd164" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C5BD9A8-8D4C-4336-BBCD-6823DF93D678}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83052261-EE6F-4C8A-B493-67EC6678B9DA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18508,23 +18527,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C5BD9A8-8D4C-4336-BBCD-6823DF93D678}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47DF324D-5AB6-463D-9483-C861984A3052}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="043cc7b2-80f4-4f5c-8b19-3681e54e1ba2"/>
-    <ds:schemaRef ds:uri="0e4cfebf-c1cd-4cb6-a3c7-8113325cd164"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>